--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_10_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14276.81440033341</v>
+        <v>-22543.24668831958</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11379152.13205246</v>
+        <v>11379152.13205245</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3324423.388212967</v>
+        <v>3324423.388212968</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>418.1856318563248</v>
+        <v>43.94281824961105</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>368.3379045390508</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>45.79486521626077</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.21753465120997</v>
       </c>
       <c r="T13" t="n">
         <v>240.8720855447433</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>418.1856318563248</v>
+        <v>383.1835448506458</v>
       </c>
       <c r="D14" t="n">
-        <v>418.1856318563248</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H14" t="n">
         <v>272.6207125031721</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>113.0959238491266</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3388892342509</v>
+        <v>47.79957151214718</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T16" t="n">
         <v>240.8720855447433</v>
       </c>
       <c r="U16" t="n">
-        <v>189.0913592658958</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>185.104588796355</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>43.94281824961105</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.0456433386444</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,7 +2019,7 @@
         <v>163.3388892342509</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.35348758163293</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.8720855447433</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>215.4619613046657</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>43.94281824961105</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>368.3379045390508</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>135.9028272103763</v>
+        <v>188.3852960275785</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6161358490523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2323,13 +2323,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>394.2947563193802</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>186.535767956647</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>6.062264534839228</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>154.8929666931713</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>186.0325948128203</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2721,16 +2721,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>60.07073011995501</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>282.9874866396815</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>82.0567464100984</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2806,7 +2806,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>136.0829573912428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>60.9334961518648</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>266.9458840398031</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>379.4667851619746</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>194.7281928688458</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>25.49356496103073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>40.79600181538812</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1552996597245</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>164.1017117126578</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>30.80498927785541</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777213</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -3508,13 +3508,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>170.1340426792009</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>376.3006409968583</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>89.16543387971674</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>82.1704359115499</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>217.002861658719</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>422.2385782941574</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.7710190562379</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>91.29868241717212</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>116.6395830120784</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3988,10 +3988,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>195.381696484856</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4036,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.9460495062423</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>55.88313987881905</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1300.684037991915</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.684037991915</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="D11" t="n">
-        <v>878.2743088441118</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="E11" t="n">
-        <v>455.8645796963089</v>
+        <v>77.84153564912322</v>
       </c>
       <c r="F11" t="n">
         <v>33.45485054850599</v>
@@ -5038,10 +5038,10 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I11" t="n">
-        <v>83.79828774524228</v>
+        <v>83.79828774524233</v>
       </c>
       <c r="J11" t="n">
-        <v>195.5292216073328</v>
+        <v>195.5292216073329</v>
       </c>
       <c r="K11" t="n">
         <v>362.9849282099031</v>
@@ -5077,16 +5077,16 @@
         <v>1672.742527425299</v>
       </c>
       <c r="V11" t="n">
-        <v>1672.742527425299</v>
+        <v>1310.125577359126</v>
       </c>
       <c r="W11" t="n">
-        <v>1672.742527425299</v>
+        <v>905.2701227701591</v>
       </c>
       <c r="X11" t="n">
-        <v>1300.684037991915</v>
+        <v>486.1276593494698</v>
       </c>
       <c r="Y11" t="n">
-        <v>1300.684037991915</v>
+        <v>77.84153564912322</v>
       </c>
     </row>
     <row r="12">
@@ -5111,7 +5111,7 @@
         <v>152.9162207615566</v>
       </c>
       <c r="G12" t="n">
-        <v>68.2497881259456</v>
+        <v>68.24978812594551</v>
       </c>
       <c r="H12" t="n">
         <v>33.45485054850599</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>592.0553407468744</v>
+        <v>375.7745658145438</v>
       </c>
       <c r="C13" t="n">
-        <v>592.0553407468744</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="D13" t="n">
-        <v>426.1773479483971</v>
+        <v>203.2128542977687</v>
       </c>
       <c r="E13" t="n">
-        <v>256.4193441991344</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F13" t="n">
-        <v>79.7122901608906</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G13" t="n">
         <v>33.45485054850599</v>
@@ -5208,16 +5208,16 @@
         <v>231.6025814132115</v>
       </c>
       <c r="M13" t="n">
-        <v>324.1674353402283</v>
+        <v>645.606356950973</v>
       </c>
       <c r="N13" t="n">
-        <v>738.1712108779898</v>
+        <v>1059.610132488735</v>
       </c>
       <c r="O13" t="n">
-        <v>1152.174986415751</v>
+        <v>1473.613908026496</v>
       </c>
       <c r="P13" t="n">
-        <v>1449.542946114066</v>
+        <v>1617.735720978399</v>
       </c>
       <c r="Q13" t="n">
         <v>1667.182735391305</v>
@@ -5226,25 +5226,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S13" t="n">
-        <v>1672.742527425299</v>
+        <v>1648.280371211956</v>
       </c>
       <c r="T13" t="n">
-        <v>1429.437390511417</v>
+        <v>1404.975234298074</v>
       </c>
       <c r="U13" t="n">
-        <v>1151.037253290152</v>
+        <v>1126.575097076809</v>
       </c>
       <c r="V13" t="n">
-        <v>864.0817451605828</v>
+        <v>839.6195889472394</v>
       </c>
       <c r="W13" t="n">
-        <v>592.0553407468744</v>
+        <v>567.5931845335309</v>
       </c>
       <c r="X13" t="n">
-        <v>592.0553407468744</v>
+        <v>567.5931845335309</v>
       </c>
       <c r="Y13" t="n">
-        <v>592.0553407468744</v>
+        <v>567.5931845335309</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1153.648765918023</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="C14" t="n">
-        <v>731.2390367702201</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="D14" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="E14" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="F14" t="n">
-        <v>308.8293076224172</v>
+        <v>708.8839731275193</v>
       </c>
       <c r="G14" t="n">
         <v>308.8293076224172</v>
       </c>
       <c r="H14" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I14" t="n">
         <v>83.79828774524199</v>
@@ -5284,10 +5284,10 @@
         <v>362.9849282099029</v>
       </c>
       <c r="L14" t="n">
-        <v>570.7285396968687</v>
+        <v>570.7285396968686</v>
       </c>
       <c r="M14" t="n">
-        <v>801.8833353847202</v>
+        <v>801.8833353847201</v>
       </c>
       <c r="N14" t="n">
         <v>1036.7784573317</v>
@@ -5299,7 +5299,7 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q14" t="n">
-        <v>1590.048899840628</v>
+        <v>1590.048899840627</v>
       </c>
       <c r="R14" t="n">
         <v>1672.742527425299</v>
@@ -5308,22 +5308,22 @@
         <v>1672.742527425299</v>
       </c>
       <c r="T14" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="U14" t="n">
-        <v>1672.742527425299</v>
+        <v>1458.555008901416</v>
       </c>
       <c r="V14" t="n">
-        <v>1558.50422050699</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="W14" t="n">
-        <v>1153.648765918023</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="X14" t="n">
-        <v>1153.648765918023</v>
+        <v>1095.938058835242</v>
       </c>
       <c r="Y14" t="n">
-        <v>1153.648765918023</v>
+        <v>1095.938058835242</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>68.24978812594551</v>
       </c>
       <c r="H15" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I15" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752901</v>
       </c>
       <c r="J15" t="n">
         <v>150.3155498622651</v>
@@ -5366,13 +5366,13 @@
         <v>416.9883711887014</v>
       </c>
       <c r="M15" t="n">
-        <v>595.4560722154181</v>
+        <v>595.456072215418</v>
       </c>
       <c r="N15" t="n">
-        <v>778.6472822410934</v>
+        <v>778.6472822410933</v>
       </c>
       <c r="O15" t="n">
-        <v>946.2314501067035</v>
+        <v>946.2314501067034</v>
       </c>
       <c r="P15" t="n">
         <v>1097.834127233838</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>679.454104972285</v>
+        <v>251.4952497645841</v>
       </c>
       <c r="C16" t="n">
-        <v>679.454104972285</v>
+        <v>251.4952497645841</v>
       </c>
       <c r="D16" t="n">
-        <v>679.454104972285</v>
+        <v>251.4952497645841</v>
       </c>
       <c r="E16" t="n">
-        <v>509.6961012230222</v>
+        <v>81.73724601532132</v>
       </c>
       <c r="F16" t="n">
-        <v>332.9890471847784</v>
+        <v>81.73724601532132</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0002701804846</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="H16" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="I16" t="n">
-        <v>33.45485054850599</v>
+        <v>33.45485054850598</v>
       </c>
       <c r="J16" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K16" t="n">
-        <v>143.8101078806224</v>
+        <v>350.8141989856836</v>
       </c>
       <c r="L16" t="n">
-        <v>231.6025814132115</v>
+        <v>438.6066725182726</v>
       </c>
       <c r="M16" t="n">
-        <v>645.6063569509731</v>
+        <v>531.1715264452894</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.610132488735</v>
+        <v>621.5353950385432</v>
       </c>
       <c r="O16" t="n">
-        <v>1473.613908026496</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P16" t="n">
-        <v>1545.033197978652</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q16" t="n">
         <v>1667.182735391305</v>
@@ -5463,25 +5463,25 @@
         <v>1672.742527425299</v>
       </c>
       <c r="S16" t="n">
-        <v>1672.742527425299</v>
+        <v>1524.001055161996</v>
       </c>
       <c r="T16" t="n">
-        <v>1429.437390511417</v>
+        <v>1280.695918248114</v>
       </c>
       <c r="U16" t="n">
-        <v>1238.436017515563</v>
+        <v>1002.295781026849</v>
       </c>
       <c r="V16" t="n">
-        <v>951.4805093859934</v>
+        <v>715.3402728972796</v>
       </c>
       <c r="W16" t="n">
-        <v>679.454104972285</v>
+        <v>443.3138684835712</v>
       </c>
       <c r="X16" t="n">
-        <v>679.454104972285</v>
+        <v>443.3138684835712</v>
       </c>
       <c r="Y16" t="n">
-        <v>679.454104972285</v>
+        <v>443.3138684835712</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>77.84153564912322</v>
+        <v>855.9192452014111</v>
       </c>
       <c r="C17" t="n">
-        <v>77.84153564912322</v>
+        <v>855.9192452014111</v>
       </c>
       <c r="D17" t="n">
-        <v>77.84153564912322</v>
+        <v>855.9192452014111</v>
       </c>
       <c r="E17" t="n">
-        <v>77.84153564912322</v>
+        <v>433.509516053608</v>
       </c>
       <c r="F17" t="n">
-        <v>77.84153564912322</v>
+        <v>433.509516053608</v>
       </c>
       <c r="G17" t="n">
         <v>33.45485054850599</v>
@@ -5512,7 +5512,7 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I17" t="n">
-        <v>83.79828774524199</v>
+        <v>83.79828774524189</v>
       </c>
       <c r="J17" t="n">
         <v>195.5292216073326</v>
@@ -5539,28 +5539,28 @@
         <v>1590.048899840628</v>
       </c>
       <c r="R17" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S17" t="n">
-        <v>1672.742527425299</v>
+        <v>1619.698045908998</v>
       </c>
       <c r="T17" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="U17" t="n">
-        <v>1672.742527425299</v>
+        <v>1405.510527385115</v>
       </c>
       <c r="V17" t="n">
-        <v>1310.125577359126</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="W17" t="n">
-        <v>905.2701227701591</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="X17" t="n">
-        <v>486.1276593494698</v>
+        <v>1042.893577318941</v>
       </c>
       <c r="Y17" t="n">
-        <v>77.84153564912322</v>
+        <v>1042.893577318941</v>
       </c>
     </row>
     <row r="18">
@@ -5576,31 +5576,31 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D18" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E18" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F18" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G18" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H18" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I18" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J18" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K18" t="n">
-        <v>605.2485493631987</v>
+        <v>605.2485493631985</v>
       </c>
       <c r="L18" t="n">
-        <v>758.1833518442028</v>
+        <v>758.1833518442027</v>
       </c>
       <c r="M18" t="n">
         <v>936.6510528709192</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.9086853403064</v>
+        <v>1017.893809287537</v>
       </c>
       <c r="C19" t="n">
-        <v>544.9086853403064</v>
+        <v>845.3320977707623</v>
       </c>
       <c r="D19" t="n">
-        <v>544.9086853403064</v>
+        <v>679.454104972285</v>
       </c>
       <c r="E19" t="n">
-        <v>375.1506815910436</v>
+        <v>509.6961012230222</v>
       </c>
       <c r="F19" t="n">
-        <v>198.4436275527998</v>
+        <v>332.9890471847784</v>
       </c>
       <c r="G19" t="n">
-        <v>33.45485054850599</v>
+        <v>168.0002701804846</v>
       </c>
       <c r="H19" t="n">
         <v>33.45485054850599</v>
@@ -5673,52 +5673,52 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J19" t="n">
-        <v>75.20378455015359</v>
+        <v>75.2037845501536</v>
       </c>
       <c r="K19" t="n">
-        <v>418.568562451758</v>
+        <v>418.5685624517581</v>
       </c>
       <c r="L19" t="n">
-        <v>832.5723379895196</v>
+        <v>506.3610359843472</v>
       </c>
       <c r="M19" t="n">
-        <v>925.1371919165364</v>
+        <v>598.9258899113639</v>
       </c>
       <c r="N19" t="n">
-        <v>1015.50106050979</v>
+        <v>689.2897585046178</v>
       </c>
       <c r="O19" t="n">
-        <v>1098.966718971616</v>
+        <v>1103.293534042379</v>
       </c>
       <c r="P19" t="n">
         <v>1449.542946114066</v>
       </c>
       <c r="Q19" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R19" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S19" t="n">
-        <v>1592.587489464054</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T19" t="n">
-        <v>1349.282352550172</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U19" t="n">
-        <v>1349.282352550172</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="V19" t="n">
-        <v>1062.326844420602</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="W19" t="n">
-        <v>790.300440006894</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="X19" t="n">
-        <v>544.9086853403064</v>
+        <v>1427.350772758712</v>
       </c>
       <c r="Y19" t="n">
-        <v>544.9086853403064</v>
+        <v>1209.712428006525</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>77.84153564912322</v>
+        <v>878.2743088441119</v>
       </c>
       <c r="C20" t="n">
-        <v>77.84153564912322</v>
+        <v>878.2743088441119</v>
       </c>
       <c r="D20" t="n">
-        <v>77.84153564912322</v>
+        <v>455.864579696309</v>
       </c>
       <c r="E20" t="n">
-        <v>77.84153564912322</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="F20" t="n">
-        <v>77.84153564912322</v>
+        <v>33.45485054850599</v>
       </c>
       <c r="G20" t="n">
         <v>33.45485054850599</v>
@@ -5749,19 +5749,19 @@
         <v>33.45485054850599</v>
       </c>
       <c r="I20" t="n">
-        <v>83.7982877452425</v>
+        <v>83.79828774524186</v>
       </c>
       <c r="J20" t="n">
-        <v>195.529221607333</v>
+        <v>195.5292216073325</v>
       </c>
       <c r="K20" t="n">
-        <v>362.9849282099033</v>
+        <v>362.9849282099029</v>
       </c>
       <c r="L20" t="n">
-        <v>570.728539696869</v>
+        <v>570.7285396968688</v>
       </c>
       <c r="M20" t="n">
-        <v>801.8833353847206</v>
+        <v>801.8833353847205</v>
       </c>
       <c r="N20" t="n">
         <v>1036.7784573317</v>
@@ -5773,31 +5773,31 @@
         <v>1447.888527710259</v>
       </c>
       <c r="Q20" t="n">
-        <v>1590.048899840627</v>
+        <v>1590.048899840628</v>
       </c>
       <c r="R20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="U20" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="V20" t="n">
-        <v>1310.125577359126</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="W20" t="n">
-        <v>905.2701227701591</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="X20" t="n">
-        <v>486.1276593494698</v>
+        <v>1300.684037991915</v>
       </c>
       <c r="Y20" t="n">
-        <v>77.84153564912322</v>
+        <v>1300.684037991915</v>
       </c>
     </row>
     <row r="21">
@@ -5813,34 +5813,34 @@
         <v>425.5107626718881</v>
       </c>
       <c r="D21" t="n">
-        <v>330.4204738184413</v>
+        <v>330.4204738184414</v>
       </c>
       <c r="E21" t="n">
-        <v>236.300059145395</v>
+        <v>236.3000591453951</v>
       </c>
       <c r="F21" t="n">
         <v>152.9162207615567</v>
       </c>
       <c r="G21" t="n">
-        <v>68.24978812594551</v>
+        <v>68.24978812594553</v>
       </c>
       <c r="H21" t="n">
         <v>33.45485054850599</v>
       </c>
       <c r="I21" t="n">
-        <v>83.76937108752902</v>
+        <v>83.76937108752904</v>
       </c>
       <c r="J21" t="n">
         <v>474.8738748284774</v>
       </c>
       <c r="K21" t="n">
-        <v>605.2485493631991</v>
+        <v>605.2485493631985</v>
       </c>
       <c r="L21" t="n">
-        <v>758.1833518442032</v>
+        <v>758.1833518442027</v>
       </c>
       <c r="M21" t="n">
-        <v>936.6510528709197</v>
+        <v>936.6510528709192</v>
       </c>
       <c r="N21" t="n">
         <v>1119.842262896595</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>33.45485054850599</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="C22" t="n">
-        <v>33.45485054850599</v>
+        <v>545.7979011344898</v>
       </c>
       <c r="D22" t="n">
-        <v>33.45485054850599</v>
+        <v>379.9199083360126</v>
       </c>
       <c r="E22" t="n">
-        <v>33.45485054850599</v>
+        <v>210.1619045867498</v>
       </c>
       <c r="F22" t="n">
         <v>33.45485054850599</v>
@@ -5910,52 +5910,52 @@
         <v>33.45485054850599</v>
       </c>
       <c r="J22" t="n">
-        <v>75.20378455015359</v>
+        <v>161.7834697148434</v>
       </c>
       <c r="K22" t="n">
-        <v>143.8101078806224</v>
+        <v>230.3897930453123</v>
       </c>
       <c r="L22" t="n">
-        <v>557.8138834183841</v>
+        <v>318.1822665779014</v>
       </c>
       <c r="M22" t="n">
-        <v>718.3088799507193</v>
+        <v>531.1715264452893</v>
       </c>
       <c r="N22" t="n">
-        <v>1132.312655488481</v>
+        <v>621.5353950385431</v>
       </c>
       <c r="O22" t="n">
-        <v>1546.316431026242</v>
+        <v>1035.539170576305</v>
       </c>
       <c r="P22" t="n">
-        <v>1617.735720978399</v>
+        <v>1449.542946114066</v>
       </c>
       <c r="Q22" t="n">
-        <v>1667.182735391305</v>
+        <v>1667.182735391306</v>
       </c>
       <c r="R22" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="S22" t="n">
-        <v>1672.742527425299</v>
+        <v>1672.7425274253</v>
       </c>
       <c r="T22" t="n">
-        <v>1535.466944384515</v>
+        <v>1482.454349619665</v>
       </c>
       <c r="U22" t="n">
-        <v>1257.06680716325</v>
+        <v>1482.454349619665</v>
       </c>
       <c r="V22" t="n">
-        <v>970.1112990336808</v>
+        <v>1482.454349619665</v>
       </c>
       <c r="W22" t="n">
-        <v>698.0848946199724</v>
+        <v>1210.427945205956</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6931399533848</v>
+        <v>965.0361905393688</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.2734692674931</v>
+        <v>737.616519853477</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1317.401300842974</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>879.2588280263972</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6013,28 +6013,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="X23" t="n">
-        <v>2360.327577447737</v>
+        <v>1743.700871327882</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.200554108492</v>
+        <v>1743.700871327882</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
         <v>341.0245550495863</v>
@@ -6062,10 +6062,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,7 +6074,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
         <v>803.387703298788</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J25" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M25" t="n">
         <v>1066.127311827552</v>
@@ -6162,7 +6162,7 @@
         <v>1635.885026789086</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540313</v>
@@ -6171,28 +6171,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>2354.204077917595</v>
       </c>
       <c r="T25" t="n">
-        <v>2118.080353351143</v>
+        <v>2111.956853821002</v>
       </c>
       <c r="U25" t="n">
-        <v>1839.693721399886</v>
+        <v>1833.570221869745</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1546.614713740175</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1274.588309326467</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.711808856608</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.711808856608</v>
+        <v>1029.196554659879</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.26120212753</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C26" t="n">
-        <v>1744.26120212753</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D26" t="n">
-        <v>1308.351417301975</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E26" t="n">
-        <v>874.5766724602698</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2163.40366554822</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2163.40366554822</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2163.40366554822</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>2163.40366554822</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X26" t="n">
-        <v>1744.26120212753</v>
+        <v>893.635148065878</v>
       </c>
       <c r="Y26" t="n">
-        <v>1744.26120212753</v>
+        <v>485.3490243655314</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>859.4385509106165</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>686.8768393938415</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D28" t="n">
-        <v>520.9988465953642</v>
+        <v>277.6420604698892</v>
       </c>
       <c r="E28" t="n">
-        <v>520.9988465953642</v>
+        <v>107.8840567206265</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K28" t="n">
-        <v>295.9524490360518</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L28" t="n">
-        <v>419.8232506543497</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M28" t="n">
-        <v>550.4276429928792</v>
+        <v>1272.302332591134</v>
       </c>
       <c r="N28" t="n">
-        <v>1120.185357954413</v>
+        <v>1399.801244395024</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>2081.94094549648</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1796.094999395791</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1524.068594982083</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1278.676840315495</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.257169629604</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2182.403674944107</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="C29" t="n">
-        <v>1744.26120212753</v>
+        <v>991.7343284158947</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.351417301975</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E29" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G29" t="n">
         <v>47.20655154895474</v>
@@ -6460,16 +6460,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001358</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435809</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.324927422802</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M29" t="n">
         <v>1131.58869045549</v>
@@ -6484,7 +6484,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X29" t="n">
-        <v>2319.861207662534</v>
+        <v>1429.876801232471</v>
       </c>
       <c r="Y29" t="n">
-        <v>2182.403674944107</v>
+        <v>1429.876801232471</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
         <v>79.1492015823585</v>
@@ -6542,16 +6542,16 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987881</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>554.5327787731575</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C31" t="n">
-        <v>554.5327787731575</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6547859746801</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E31" t="n">
         <v>388.6547859746801</v>
@@ -6621,16 +6621,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L31" t="n">
-        <v>828.1746199579906</v>
+        <v>839.4924998801313</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>970.0968922186607</v>
       </c>
       <c r="N31" t="n">
         <v>1539.854607180195</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2298.778591435752</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T31" t="n">
-        <v>2056.531367339159</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U31" t="n">
-        <v>1778.144735387902</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.189227258332</v>
+        <v>1831.124845221574</v>
       </c>
       <c r="W31" t="n">
-        <v>1219.162822844624</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X31" t="n">
-        <v>973.7710681780363</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y31" t="n">
-        <v>746.3513974921445</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>884.8517156860543</v>
+        <v>868.648807357425</v>
       </c>
       <c r="C32" t="n">
-        <v>446.7092428694776</v>
+        <v>430.5063345408483</v>
       </c>
       <c r="D32" t="n">
-        <v>446.7092428694776</v>
+        <v>430.5063345408483</v>
       </c>
       <c r="E32" t="n">
-        <v>446.7092428694776</v>
+        <v>430.5063345408483</v>
       </c>
       <c r="F32" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G32" t="n">
         <v>47.20655154895473</v>
@@ -6697,25 +6697,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
         <v>2043.069798152528</v>
@@ -6733,19 +6733,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.54685999802</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X32" t="n">
-        <v>884.8517156860543</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="Y32" t="n">
-        <v>884.8517156860543</v>
+        <v>1294.948377842333</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>750.041858240633</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
         <v>47.20655154895473</v>
@@ -6864,7 +6864,7 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L34" t="n">
-        <v>1106.33113894078</v>
+        <v>828.1746199579902</v>
       </c>
       <c r="M34" t="n">
         <v>1412.355695376305</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270316</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W34" t="n">
-        <v>1552.738213270316</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>1169.280147645512</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>941.8604769596202</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1997.710627381563</v>
+        <v>1349.126238781879</v>
       </c>
       <c r="C35" t="n">
-        <v>1559.568154564986</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D35" t="n">
-        <v>1123.65836973943</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E35" t="n">
-        <v>1123.65836973943</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867018</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>1997.710627381563</v>
+        <v>2194.568272687476</v>
       </c>
       <c r="X35" t="n">
-        <v>1997.710627381563</v>
+        <v>1775.425809266787</v>
       </c>
       <c r="Y35" t="n">
-        <v>1997.710627381563</v>
+        <v>1775.425809266787</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851411</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>443.520053268366</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>443.520053268366</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>273.7620495191033</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>273.7620495191033</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351143</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399886</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270316</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856608</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.32005419002</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041283</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>657.2015927283607</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="C38" t="n">
-        <v>219.059119911784</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D38" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
         <v>47.20655154895474</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V38" t="n">
-        <v>1889.485634438363</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W38" t="n">
-        <v>1484.630179849397</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X38" t="n">
-        <v>1065.487716428707</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="Y38" t="n">
-        <v>657.2015927283607</v>
+        <v>913.2164539563237</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C40" t="n">
-        <v>526.0156699571453</v>
+        <v>471.655226289377</v>
       </c>
       <c r="D40" t="n">
-        <v>526.0156699571453</v>
+        <v>471.655226289377</v>
       </c>
       <c r="E40" t="n">
-        <v>356.2576662078826</v>
+        <v>471.655226289377</v>
       </c>
       <c r="F40" t="n">
-        <v>179.5506121696388</v>
+        <v>294.9481722511332</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>130.2069918636516</v>
       </c>
       <c r="H40" t="n">
         <v>47.20655154895474</v>
@@ -7338,19 +7338,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092378</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W40" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X40" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y40" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1128.043535737734</v>
+        <v>907.4849108292025</v>
       </c>
       <c r="C41" t="n">
-        <v>1128.043535737734</v>
+        <v>907.4849108292025</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>907.4849108292025</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>473.7101659874976</v>
       </c>
       <c r="F41" t="n">
         <v>47.20655154895473</v>
@@ -7411,13 +7411,13 @@
         <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M41" t="n">
         <v>1131.588690455489</v>
@@ -7444,19 +7444,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W41" t="n">
-        <v>1955.47212285877</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="X41" t="n">
-        <v>1536.32965943808</v>
+        <v>1333.78448131411</v>
       </c>
       <c r="Y41" t="n">
-        <v>1128.043535737734</v>
+        <v>1333.78448131411</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>510.1697853555977</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C43" t="n">
-        <v>510.1697853555977</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D43" t="n">
-        <v>344.2917925571204</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E43" t="n">
-        <v>344.2917925571204</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F43" t="n">
-        <v>344.2917925571204</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895473</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.75145377609</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1160.879221014855</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.378132818745</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7608,13 +7608,13 @@
         <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>1114.246330190817</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>678.3365453652616</v>
       </c>
       <c r="E44" t="n">
-        <v>475.073981139747</v>
+        <v>244.5618005235568</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>244.5618005235568</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7648,13 +7648,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7669,7 +7669,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
@@ -7684,16 +7684,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X44" t="n">
-        <v>1900.718744241845</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y44" t="n">
-        <v>1900.718744241845</v>
+        <v>1552.388803007394</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C46" t="n">
-        <v>299.093514772602</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D46" t="n">
-        <v>299.093514772602</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="E46" t="n">
-        <v>299.093514772602</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F46" t="n">
-        <v>299.093514772602</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
@@ -7806,25 +7806,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M46" t="n">
-        <v>1236.93553127931</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N46" t="n">
-        <v>1364.434443083199</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8856,19 +8856,19 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>324.6857794047927</v>
       </c>
       <c r="N13" t="n">
-        <v>326.9089969136442</v>
+        <v>326.9089969136444</v>
       </c>
       <c r="O13" t="n">
-        <v>333.8768859352889</v>
+        <v>333.8768859352888</v>
       </c>
       <c r="P13" t="n">
-        <v>228.2309795415747</v>
+        <v>73.43689191893554</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>17.27435144824381</v>
+        <v>17.27435144824403</v>
       </c>
       <c r="Q15" t="n">
         <v>327.3670431532728</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>121.6408140811831</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>324.6857794047928</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>333.8768859352888</v>
+        <v>333.8768859352889</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>346.0449349349549</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.43689191893554</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>16.80470271645345</v>
+        <v>16.80470271645333</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9336,10 +9336,10 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>333.876885935289</v>
       </c>
       <c r="P19" t="n">
-        <v>281.9767042326207</v>
+        <v>277.6061839591221</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>16.8047027164539</v>
+        <v>16.80470271645333</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>329.5063656617905</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>68.61630566193787</v>
+        <v>121.6408140811829</v>
       </c>
       <c r="N22" t="n">
-        <v>326.9089969136442</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>333.876885935289</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>346.0449349349551</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M25" t="n">
-        <v>192.4544649334018</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -10035,19 +10035,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>6.525705103702933</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>141.4680432173446</v>
+        <v>240.3544725979815</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>141.4680432173443</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464598</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>177.1920849464593</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10986,22 +10986,22 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>118.2717723303429</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -11226,19 +11226,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>10.62967161639949</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11466,16 +11466,16 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>177.1920849464602</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,13 +23263,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>11.25136553696291</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>5.403123438559476</v>
+        <v>379.6459370452733</v>
       </c>
       <c r="G11" t="n">
         <v>396.054118850051</v>
@@ -23317,16 +23317,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>46.61313424743156</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>117.5440240179901</v>
+        <v>163.3388892342509</v>
       </c>
       <c r="H13" t="n">
         <v>133.1999654356588</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.2540575406698</v>
+        <v>123.0365228894599</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>15.57541623208607</v>
+        <v>50.57750323776509</v>
       </c>
       <c r="D14" t="n">
-        <v>13.36505512097506</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,7 +23509,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>396.054118850051</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>52.51403670113841</v>
+        <v>52.51403670113842</v>
       </c>
       <c r="T14" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.5237009191198</v>
       </c>
       <c r="V14" t="n">
-        <v>245.8948567163851</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>115.5393177221037</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.1999654356588</v>
       </c>
       <c r="I16" t="n">
         <v>69.83578017384922</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.2540575406698</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>86.52477658315649</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>236.9319859837036</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>352.11130060044</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>272.6207125031721</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>52.51403670113841</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.0456433386444</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.5237009191198</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>133.1999654356588</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>67.9005699590369</v>
+        <v>147.2540575406698</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.8720855447433</v>
       </c>
       <c r="U19" t="n">
         <v>275.6161358490523</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>9.683512674367137</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>3.850942923733783</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>13.365055120975</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>11.25136553696285</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>352.11130060044</v>
+        <v>396.054118850051</v>
       </c>
       <c r="H20" t="n">
         <v>272.6207125031721</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>52.51403670113842</v>
+        <v>52.51403670113841</v>
       </c>
       <c r="T20" t="n">
         <v>212.0456433386444</v>
@@ -24028,16 +24028,16 @@
         <v>256.5237009191198</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>46.61313424743156</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.3388892342509</v>
@@ -24147,7 +24147,7 @@
         <v>133.1999654356588</v>
       </c>
       <c r="I22" t="n">
-        <v>69.83578017384922</v>
+        <v>69.8357801738492</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>147.2540575406698</v>
       </c>
       <c r="T22" t="n">
-        <v>104.969258334367</v>
+        <v>52.48678951716479</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6161358490523</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>37.25593065791969</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -24259,7 +24259,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>256.4799845637012</v>
@@ -24268,13 +24268,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>254.5875093574908</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.364664575150272</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>136.9200085759686</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24445,19 +24445,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>54.76057232240757</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>228.9184439736621</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>114.8692533779063</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24654,13 +24654,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>1.098466408592287</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>349.4939405672015</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24733,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>268.1203050721003</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>82.04877695894302</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>2.360256329768276</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>44.12197013290972</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>220.2228459176366</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>145.3425294405766</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>202.1418353045335</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>20.43345563515982</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,13 +25213,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>236.7051883304192</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>132.2887793057513</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>114.8692533779061</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>261.416644298099</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>38.65039778962409</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>81.67066052189057</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>48.85018410292736</v>
       </c>
       <c r="I40" t="n">
         <v>62.46433369811443</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>214.5478253185809</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.350177000726887</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25684,19 +25684,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.12941347555935</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>178.0074579523992</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>305.3969917679803</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>200.1259679224616</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25924,13 +25924,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>9.273163364250252</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>107.2106287047877</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>328021.3294539002</v>
+        <v>328021.3294539003</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>328021.3294539002</v>
+        <v>328021.3294539003</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328021.3294539003</v>
+        <v>328021.3294539004</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>417886.823893855</v>
+        <v>417886.8238938551</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>417886.8238938549</v>
+        <v>417886.823893855</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>417886.8238938551</v>
+        <v>417886.823893855</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>417886.8238938552</v>
+        <v>417886.823893855</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>109551.128031233</v>
+        <v>109551.1280312331</v>
       </c>
       <c r="F2" t="n">
         <v>109551.128031233</v>
@@ -26340,22 +26340,22 @@
         <v>141567.8141707356</v>
       </c>
       <c r="K2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="L2" t="n">
         <v>141567.8141707356</v>
       </c>
       <c r="M2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707356</v>
       </c>
       <c r="N2" t="n">
         <v>141567.8141707357</v>
       </c>
       <c r="O2" t="n">
-        <v>141567.8141707355</v>
+        <v>141567.8141707357</v>
       </c>
       <c r="P2" t="n">
-        <v>141567.8141707357</v>
+        <v>141567.8141707356</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>148032.4060558944</v>
+        <v>148032.4060558942</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26435,31 +26435,31 @@
         <v>11902.92322350585</v>
       </c>
       <c r="H4" t="n">
-        <v>11902.92322350586</v>
+        <v>11902.92322350585</v>
       </c>
       <c r="I4" t="n">
-        <v>9380.90788722358</v>
+        <v>9380.907887223577</v>
       </c>
       <c r="J4" t="n">
         <v>9380.907887223584</v>
       </c>
       <c r="K4" t="n">
-        <v>9380.907887223588</v>
+        <v>9380.907887223584</v>
       </c>
       <c r="L4" t="n">
         <v>9380.907887223584</v>
       </c>
       <c r="M4" t="n">
-        <v>9380.907887223582</v>
+        <v>9380.90788722358</v>
       </c>
       <c r="N4" t="n">
+        <v>9380.907887223586</v>
+      </c>
+      <c r="O4" t="n">
         <v>9380.907887223584</v>
       </c>
-      <c r="O4" t="n">
-        <v>9380.907887223582</v>
-      </c>
       <c r="P4" t="n">
-        <v>9380.907887223588</v>
+        <v>9380.907887223584</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>32636.50261996421</v>
       </c>
       <c r="F5" t="n">
-        <v>32636.50261996421</v>
+        <v>32636.5026199642</v>
       </c>
       <c r="G5" t="n">
         <v>32636.50261996421</v>
@@ -26493,7 +26493,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-325592.050795996</v>
+        <v>-326323.8017177707</v>
       </c>
       <c r="F6" t="n">
-        <v>65011.70218776297</v>
+        <v>64279.95126598823</v>
       </c>
       <c r="G6" t="n">
-        <v>65011.70218776299</v>
+        <v>64279.95126598826</v>
       </c>
       <c r="H6" t="n">
-        <v>65011.70218776297</v>
+        <v>64279.95126598825</v>
       </c>
       <c r="I6" t="n">
-        <v>-61896.58098202018</v>
+        <v>-62450.46142524188</v>
       </c>
       <c r="J6" t="n">
-        <v>86135.82507387416</v>
+        <v>85581.94463065227</v>
       </c>
       <c r="K6" t="n">
-        <v>86135.82507387428</v>
+        <v>85581.94463065226</v>
       </c>
       <c r="L6" t="n">
-        <v>86135.82507387418</v>
+        <v>85581.94463065224</v>
       </c>
       <c r="M6" t="n">
-        <v>-18077.70712724939</v>
+        <v>-18631.58757047134</v>
       </c>
       <c r="N6" t="n">
-        <v>86135.82507387425</v>
+        <v>85581.94463065235</v>
       </c>
       <c r="O6" t="n">
-        <v>86135.82507387415</v>
+        <v>85581.94463065233</v>
       </c>
       <c r="P6" t="n">
-        <v>86135.82507387425</v>
+        <v>85581.94463065223</v>
       </c>
     </row>
   </sheetData>
@@ -26749,16 +26749,16 @@
         <v>330.7713854632871</v>
       </c>
       <c r="F3" t="n">
-        <v>330.7713854632872</v>
+        <v>330.7713854632871</v>
       </c>
       <c r="G3" t="n">
         <v>330.7713854632872</v>
       </c>
       <c r="H3" t="n">
-        <v>330.7713854632871</v>
+        <v>330.7713854632872</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
         <v>466.7019280932212</v>
@@ -26767,10 +26767,10 @@
         <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
         <v>466.7019280932212</v>
@@ -26804,16 +26804,16 @@
         <v>418.1856318563248</v>
       </c>
       <c r="G4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="H4" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="I4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="J4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
@@ -26822,7 +26822,7 @@
         <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>135.9305426299341</v>
+        <v>135.9305426299339</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>171.8962625056093</v>
+        <v>171.8962625056091</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>418.1856318563247</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>13.61814050804377</v>
       </c>
       <c r="I14" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351107</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536268</v>
@@ -32004,13 +32004,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M14" t="n">
-        <v>233.4896926139917</v>
+        <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464442</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667434</v>
@@ -32022,13 +32022,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R14" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219382</v>
       </c>
       <c r="S14" t="n">
-        <v>30.30131837686295</v>
+        <v>30.30131837686294</v>
       </c>
       <c r="T14" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047393</v>
       </c>
       <c r="U14" t="n">
         <v>0.1063787370334189</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229195</v>
       </c>
       <c r="H15" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284513</v>
       </c>
       <c r="I15" t="n">
         <v>24.49580543289438</v>
       </c>
       <c r="J15" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872329</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -32098,10 +32098,10 @@
         <v>135.8596658518924</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.81858870305199</v>
+        <v>90.81858870305197</v>
       </c>
       <c r="R15" t="n">
-        <v>44.17358238319147</v>
+        <v>44.17358238319146</v>
       </c>
       <c r="S15" t="n">
         <v>13.21525299468887</v>
@@ -32110,7 +32110,7 @@
         <v>2.867725502271328</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782367</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.596472990179698</v>
       </c>
       <c r="H16" t="n">
-        <v>5.303187130870411</v>
+        <v>5.30318713087041</v>
       </c>
       <c r="I16" t="n">
         <v>17.9375695592222</v>
@@ -32159,25 +32159,25 @@
         <v>42.17064040570465</v>
       </c>
       <c r="K16" t="n">
-        <v>69.2993164954231</v>
+        <v>69.29931649542308</v>
       </c>
       <c r="L16" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453439</v>
       </c>
       <c r="M16" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153211</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268057</v>
       </c>
       <c r="O16" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103589</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692136999</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495635</v>
       </c>
       <c r="R16" t="n">
         <v>26.81959463117078</v>
@@ -32189,7 +32189,7 @@
         <v>2.548566412585982</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03253489037343812</v>
+        <v>0.03253489037343811</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H17" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I17" t="n">
-        <v>51.26457824351108</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K17" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L17" t="n">
         <v>209.8420318050159</v>
@@ -32250,7 +32250,7 @@
         <v>237.2677999464442</v>
       </c>
       <c r="O17" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P17" t="n">
         <v>191.2174419853368</v>
@@ -32259,13 +32259,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219384</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S17" t="n">
         <v>30.30131837686295</v>
       </c>
       <c r="T17" t="n">
-        <v>5.820911517047394</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U17" t="n">
         <v>0.1063787370334189</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7114705272229196</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H18" t="n">
-        <v>6.871307460284514</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I18" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J18" t="n">
-        <v>67.2183623987233</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K18" t="n">
         <v>114.8868877226589</v>
@@ -32332,10 +32332,10 @@
         <v>169.27693723799</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.81858870305199</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R18" t="n">
         <v>44.17358238319147</v>
@@ -32344,10 +32344,10 @@
         <v>13.21525299468887</v>
       </c>
       <c r="T18" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04680727152782368</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5964729901796981</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H19" t="n">
-        <v>5.303187130870411</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I19" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K19" t="n">
         <v>69.2993164954231</v>
       </c>
       <c r="L19" t="n">
-        <v>88.67926619453441</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M19" t="n">
-        <v>93.49985245153212</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N19" t="n">
-        <v>91.27663494268059</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O19" t="n">
-        <v>84.30874592103591</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P19" t="n">
-        <v>72.14069692137001</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.94647920495636</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R19" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T19" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U19" t="n">
         <v>0.03253489037343812</v>
@@ -32463,31 +32463,31 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.329734212917736</v>
+        <v>1.329734212917737</v>
       </c>
       <c r="H20" t="n">
         <v>13.61814050804377</v>
       </c>
       <c r="I20" t="n">
-        <v>51.26457824351107</v>
+        <v>51.26457824351109</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050159</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464442</v>
       </c>
       <c r="O20" t="n">
-        <v>224.0452553667434</v>
+        <v>224.0452553667435</v>
       </c>
       <c r="P20" t="n">
         <v>191.2174419853368</v>
@@ -32496,13 +32496,13 @@
         <v>143.5963354852203</v>
       </c>
       <c r="R20" t="n">
-        <v>83.52891675219382</v>
+        <v>83.52891675219385</v>
       </c>
       <c r="S20" t="n">
-        <v>30.30131837686294</v>
+        <v>30.30131837686295</v>
       </c>
       <c r="T20" t="n">
-        <v>5.820911517047393</v>
+        <v>5.820911517047395</v>
       </c>
       <c r="U20" t="n">
         <v>0.1063787370334189</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7114705272229195</v>
+        <v>0.7114705272229197</v>
       </c>
       <c r="H21" t="n">
-        <v>6.871307460284513</v>
+        <v>6.871307460284515</v>
       </c>
       <c r="I21" t="n">
-        <v>24.49580543289438</v>
+        <v>24.49580543289439</v>
       </c>
       <c r="J21" t="n">
-        <v>67.21836239872329</v>
+        <v>67.21836239872331</v>
       </c>
       <c r="K21" t="n">
         <v>114.8868877226589</v>
@@ -32569,22 +32569,22 @@
         <v>169.27693723799</v>
       </c>
       <c r="P21" t="n">
-        <v>135.8596658518924</v>
+        <v>135.8596658518925</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.81858870305197</v>
+        <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
-        <v>44.17358238319146</v>
+        <v>44.17358238319147</v>
       </c>
       <c r="S21" t="n">
         <v>13.21525299468887</v>
       </c>
       <c r="T21" t="n">
-        <v>2.867725502271328</v>
+        <v>2.867725502271329</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04680727152782367</v>
+        <v>0.04680727152782369</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.596472990179698</v>
+        <v>0.5964729901796982</v>
       </c>
       <c r="H22" t="n">
-        <v>5.30318713087041</v>
+        <v>5.303187130870412</v>
       </c>
       <c r="I22" t="n">
         <v>17.9375695592222</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K22" t="n">
-        <v>69.29931649542308</v>
+        <v>69.2993164954231</v>
       </c>
       <c r="L22" t="n">
-        <v>88.67926619453439</v>
+        <v>88.67926619453442</v>
       </c>
       <c r="M22" t="n">
-        <v>93.49985245153211</v>
+        <v>93.49985245153213</v>
       </c>
       <c r="N22" t="n">
-        <v>91.27663494268057</v>
+        <v>91.27663494268062</v>
       </c>
       <c r="O22" t="n">
-        <v>84.30874592103589</v>
+        <v>84.30874592103592</v>
       </c>
       <c r="P22" t="n">
-        <v>72.14069692136999</v>
+        <v>72.14069692137002</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.94647920495635</v>
+        <v>49.94647920495637</v>
       </c>
       <c r="R22" t="n">
-        <v>26.81959463117078</v>
+        <v>26.81959463117079</v>
       </c>
       <c r="S22" t="n">
-        <v>10.39489747431346</v>
+        <v>10.39489747431347</v>
       </c>
       <c r="T22" t="n">
-        <v>2.548566412585982</v>
+        <v>2.548566412585983</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03253489037343811</v>
+        <v>0.03253489037343812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -34228,7 +34228,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -35576,19 +35576,19 @@
         <v>88.67926619453439</v>
       </c>
       <c r="M13" t="n">
-        <v>93.49985245153212</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="N13" t="n">
-        <v>418.1856318563248</v>
+        <v>418.1856318563249</v>
       </c>
       <c r="O13" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P13" t="n">
-        <v>300.3716764629446</v>
+        <v>145.5775888403055</v>
       </c>
       <c r="Q13" t="n">
-        <v>219.8381709871101</v>
+        <v>49.9464792049564</v>
       </c>
       <c r="R13" t="n">
         <v>5.615951549488944</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.85195676437969</v>
+        <v>50.85195676437968</v>
       </c>
       <c r="J14" t="n">
         <v>112.8595291536269</v>
@@ -35652,13 +35652,13 @@
         <v>169.1471783864346</v>
       </c>
       <c r="L14" t="n">
-        <v>209.8420318050159</v>
+        <v>209.8420318050158</v>
       </c>
       <c r="M14" t="n">
         <v>233.4896926139916</v>
       </c>
       <c r="N14" t="n">
-        <v>237.2677999464443</v>
+        <v>237.2677999464441</v>
       </c>
       <c r="O14" t="n">
         <v>224.0452553667435</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>50.82274801921519</v>
+        <v>50.82274801921518</v>
       </c>
       <c r="J15" t="n">
-        <v>67.21836239872329</v>
+        <v>67.2183623987233</v>
       </c>
       <c r="K15" t="n">
         <v>114.8868877226589</v>
@@ -35734,7 +35734,7 @@
         <v>154.4795984656607</v>
       </c>
       <c r="M15" t="n">
-        <v>180.2704050774915</v>
+        <v>180.2704050774914</v>
       </c>
       <c r="N15" t="n">
         <v>185.041626288561</v>
@@ -35743,13 +35743,13 @@
         <v>169.27693723799</v>
       </c>
       <c r="P15" t="n">
-        <v>153.1340173001362</v>
+        <v>153.1340173001365</v>
       </c>
       <c r="Q15" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="R15" t="n">
-        <v>162.5299238926257</v>
+        <v>162.5299238926254</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K16" t="n">
-        <v>69.29931649542308</v>
+        <v>190.9401305766062</v>
       </c>
       <c r="L16" t="n">
         <v>88.67926619453442</v>
       </c>
       <c r="M16" t="n">
-        <v>418.1856318563249</v>
+        <v>93.49985245153209</v>
       </c>
       <c r="N16" t="n">
-        <v>418.1856318563248</v>
+        <v>91.27663494268063</v>
       </c>
       <c r="O16" t="n">
         <v>418.1856318563248</v>
       </c>
       <c r="P16" t="n">
-        <v>72.14069692136991</v>
+        <v>418.1856318563248</v>
       </c>
       <c r="Q16" t="n">
-        <v>123.3833711238919</v>
+        <v>219.8381709871101</v>
       </c>
       <c r="R16" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488944</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>50.85195676437969</v>
       </c>
       <c r="J17" t="n">
-        <v>112.8595291536269</v>
+        <v>112.859529153627</v>
       </c>
       <c r="K17" t="n">
         <v>169.1471783864346</v>
@@ -35907,7 +35907,7 @@
         <v>143.5963354852204</v>
       </c>
       <c r="R17" t="n">
-        <v>83.52891675219371</v>
+        <v>83.52891675219394</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J18" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K18" t="n">
-        <v>131.6915904391124</v>
+        <v>131.6915904391122</v>
       </c>
       <c r="L18" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M18" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N18" t="n">
         <v>185.041626288561</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.17064040570465</v>
+        <v>42.17064040570466</v>
       </c>
       <c r="K19" t="n">
         <v>346.8331089915197</v>
       </c>
       <c r="L19" t="n">
+        <v>88.67926619453442</v>
+      </c>
+      <c r="M19" t="n">
+        <v>93.49985245153215</v>
+      </c>
+      <c r="N19" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O19" t="n">
         <v>418.1856318563249</v>
       </c>
-      <c r="M19" t="n">
-        <v>93.49985245153209</v>
-      </c>
-      <c r="N19" t="n">
-        <v>91.27663494268052</v>
-      </c>
-      <c r="O19" t="n">
-        <v>84.30874592103601</v>
-      </c>
       <c r="P19" t="n">
-        <v>354.1174011539906</v>
+        <v>349.746880880492</v>
       </c>
       <c r="Q19" t="n">
-        <v>219.8381709871101</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R19" t="n">
-        <v>5.615951549488948</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,22 +36117,22 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>50.85195676437968</v>
+        <v>50.85195676437969</v>
       </c>
       <c r="J20" t="n">
-        <v>112.8595291536268</v>
+        <v>112.8595291536269</v>
       </c>
       <c r="K20" t="n">
-        <v>169.1471783864346</v>
+        <v>169.1471783864347</v>
       </c>
       <c r="L20" t="n">
-        <v>209.8420318050158</v>
+        <v>209.8420318050161</v>
       </c>
       <c r="M20" t="n">
-        <v>233.4896926139916</v>
+        <v>233.4896926139917</v>
       </c>
       <c r="N20" t="n">
-        <v>237.2677999464441</v>
+        <v>237.2677999464443</v>
       </c>
       <c r="O20" t="n">
         <v>224.0452553667433</v>
@@ -36141,7 +36141,7 @@
         <v>191.2174419853368</v>
       </c>
       <c r="Q20" t="n">
-        <v>143.5963354852202</v>
+        <v>143.5963354852204</v>
       </c>
       <c r="R20" t="n">
         <v>83.52891675219394</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>50.82274801921519</v>
+        <v>50.8227480192152</v>
       </c>
       <c r="J21" t="n">
         <v>395.0550542837863</v>
       </c>
       <c r="K21" t="n">
-        <v>131.6915904391128</v>
+        <v>131.6915904391122</v>
       </c>
       <c r="L21" t="n">
         <v>154.4795984656607</v>
       </c>
       <c r="M21" t="n">
-        <v>180.2704050774914</v>
+        <v>180.2704050774915</v>
       </c>
       <c r="N21" t="n">
         <v>185.041626288561</v>
       </c>
       <c r="O21" t="n">
-        <v>169.2769372379898</v>
+        <v>169.2769372379901</v>
       </c>
       <c r="P21" t="n">
         <v>135.8596658518925</v>
@@ -36223,7 +36223,7 @@
         <v>90.818588703052</v>
       </c>
       <c r="R21" t="n">
-        <v>162.5299238926254</v>
+        <v>162.5299238926257</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.17064040570465</v>
+        <v>129.6248678447853</v>
       </c>
       <c r="K22" t="n">
         <v>69.29931649542308</v>
       </c>
       <c r="L22" t="n">
+        <v>88.67926619453442</v>
+      </c>
+      <c r="M22" t="n">
+        <v>215.140666532715</v>
+      </c>
+      <c r="N22" t="n">
+        <v>91.27663494268063</v>
+      </c>
+      <c r="O22" t="n">
         <v>418.1856318563249</v>
       </c>
-      <c r="M22" t="n">
-        <v>162.11615811347</v>
-      </c>
-      <c r="N22" t="n">
-        <v>418.1856318563248</v>
-      </c>
-      <c r="O22" t="n">
-        <v>418.1856318563248</v>
-      </c>
       <c r="P22" t="n">
-        <v>72.14069692136991</v>
+        <v>418.185631856325</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.9464792049564</v>
+        <v>219.8381709871103</v>
       </c>
       <c r="R22" t="n">
-        <v>5.615951549488944</v>
+        <v>5.615951549488951</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
@@ -36369,7 +36369,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36445,7 +36445,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
@@ -36518,19 +36518,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>547.5562458447062</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M25" t="n">
-        <v>324.378093558179</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N25" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>104.3035844648728</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N28" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561043</v>
+        <v>260.4234789221541</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485103</v>
@@ -36831,7 +36831,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
@@ -36840,22 +36840,22 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>266.5900650540092</v>
+        <v>365.4764944346461</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048098</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
@@ -37074,7 +37074,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37232,10 +37232,10 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>547.556245844706</v>
+        <v>266.5900650540088</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37706,22 +37706,22 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954892</v>
+        <v>247.0585519302313</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>142.5533002411767</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,10 +38016,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766674</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O46" t="n">
-        <v>296.14752065127</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
